--- a/sentences/affordance/Affordance/AffordanceNegstream.xlsx
+++ b/sentences/affordance/Affordance/AffordanceNegstream.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9938E3D7-6D66-43EE-9FA7-7CAABE8590E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDF99D8-AC6D-4261-981B-2B5426A55F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,54 +52,12 @@
     <t>hig negative: “I am convinced that foolishness is of no value to a friendship.”</t>
   </si>
   <si>
-    <t>low negative: “That you lack some skills makes it a little harder for us to become friends one day.”</t>
-  </si>
-  <si>
-    <t>mid negative: “That you are kind of silly makes me gloomy about a future friendship.”</t>
-  </si>
-  <si>
-    <t>hig negative: “In view of your basic lack of intelligence, I don’t expect much about us being friends.”</t>
-  </si>
-  <si>
-    <t>low negative: “Maybe one day I’ll call upon you but don’t count on it too much.”</t>
-  </si>
-  <si>
-    <t>mid negative: “Thanks very much but your help is not needed.”</t>
-  </si>
-  <si>
-    <t>hig negative: “I know it’s rude but I have no use for you.”</t>
-  </si>
-  <si>
-    <t>low “In sum, I sympathize with you – a little.”</t>
-  </si>
-  <si>
-    <t>mid “However, you somehow move me that way.”</t>
-  </si>
-  <si>
-    <t>hig “I fully empathize with you.”</t>
-  </si>
-  <si>
     <t>Involvement</t>
   </si>
   <si>
-    <t>mid “But let’s not get ahead of ourselves: It’s good if we maintain some professional distance.”</t>
-  </si>
-  <si>
-    <t>low “Still, although not too bad, I have a hard time warming up to you as well.”</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
-    <t>low “We have little in common so you may not be able to help me.”</t>
-  </si>
-  <si>
-    <t>mid “We hardly share anything between us so I think you can hardly be of help.”</t>
-  </si>
-  <si>
-    <t>hig “We are so different, you and I: That too makes you useless to me.”</t>
-  </si>
-  <si>
     <t>DissimilarityInUI</t>
   </si>
   <si>
@@ -112,31 +70,94 @@
     <t>Relevance</t>
   </si>
   <si>
-    <t>low “At the same time, I feel sorry that we share so little: It reduces our possibilities to be friends.”</t>
-  </si>
-  <si>
-    <t>mid “We also have our dissimilarities, which makes me pity you, I feel.”</t>
-  </si>
-  <si>
-    <t>hig “Yet, there is hardly anything between us because we are so very unalike.”</t>
-  </si>
-  <si>
-    <t>mid “It would be good if you stay away but some things I recognize in you that make me a little more mild-tempered.”</t>
-  </si>
-  <si>
-    <t>low “We are not the same, I know, and you better not come closer but I also see myself in you somehow.”</t>
-  </si>
-  <si>
     <t>DissimilarityInInvolvement</t>
   </si>
   <si>
     <t>DissimilarityInDistance</t>
   </si>
   <si>
-    <t>“However, please, get out of my way.” “However, please, get out of my sight.”</t>
-  </si>
-  <si>
-    <t>“Although you better leave now, we share some characteristics as well I must admit.”</t>
+    <t>That you lack some skills makes it a little harder for us to become friends one day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That you are kind of silly makes me gloomy about a future friendship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In view of your basic lack of intelligence, I don’t expect much about us being friends.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maybe one day I’ll call upon you but don’t count on it too much.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanks very much but your help is not needed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know it’s rude but I have no use for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In sum, I sympathize with you – a little.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, you somehow move me that way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I fully empathize with you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Still, although not too bad, I have a hard time warming up to you as well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But let’s not get ahead of ourselves: It’s good if we maintain some professional distance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, please, get out of my way. However, please, get out of my sight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We have little in common so you may not be able to help me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We hardly share anything between us so I think you can hardly be of help.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are so different, you and I: That too makes you useless to me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the same time, I feel sorry that we share so little: It reduces our possibilities to be friends.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We also have our dissimilarities, which makes me pity you, I feel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yet, there is hardly anything between us because we are so very unalike.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are not the same, I know, and you better not come closer but I also see myself in you somehow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although you better leave now, we share some characteristics as well I must admit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It would be good if you stay away but some things I recognize in you that make me a little more mild-tempered.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,17 +565,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="84.77734375" customWidth="1"/>
+    <col min="5" max="5" width="61.88671875" customWidth="1"/>
+    <col min="6" max="6" width="46.21875" customWidth="1"/>
+    <col min="7" max="7" width="66" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" customWidth="1"/>
+    <col min="9" max="9" width="74.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,31 +590,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -597,28 +625,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -629,28 +657,28 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,25 +689,25 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -709,7 +737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sentences/affordance/Affordance/AffordanceNegstream.xlsx
+++ b/sentences/affordance/Affordance/AffordanceNegstream.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDF99D8-AC6D-4261-981B-2B5426A55F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524ADC3-CDDB-470D-866C-422C41D8F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>AffordanceNegObser</t>
   </si>
@@ -25,33 +25,15 @@
     <t>AffordanceNeg</t>
   </si>
   <si>
-    <t>low “It seems that was not a very handy thing to do.”</t>
-  </si>
-  <si>
     <t>It seems that was not a very handy thing to do.</t>
   </si>
   <si>
-    <t>mid “You made a silly move, I suppose.”</t>
-  </si>
-  <si>
     <t>You made a silly move, I suppose.</t>
   </si>
   <si>
-    <t>hig “You did a very stupid thing there.”</t>
-  </si>
-  <si>
     <t>You did a very stupid thing there.</t>
   </si>
   <si>
-    <t>low negative: “For being friends, I think that having certain skills is not quite irrelevant, right?”</t>
-  </si>
-  <si>
-    <t>mid negative: “For making friends, it isn’t a trivial matter that people are clever, now is it?”</t>
-  </si>
-  <si>
-    <t>hig negative: “I am convinced that foolishness is of no value to a friendship.”</t>
-  </si>
-  <si>
     <t>Involvement</t>
   </si>
   <si>
@@ -158,6 +140,15 @@
   <si>
     <t>It would be good if you stay away but some things I recognize in you that make me a little more mild-tempered.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For being friends, I think that having certain skills is not quite irrelevant, right?</t>
+  </si>
+  <si>
+    <t>For making friends, it isn’t a trivial matter that people are clever, now is it?</t>
+  </si>
+  <si>
+    <t>I am convinced that foolishness is of no value to a friendship.</t>
   </si>
 </sst>
 </file>
@@ -565,24 +556,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="84.77734375" customWidth="1"/>
-    <col min="5" max="5" width="61.88671875" customWidth="1"/>
-    <col min="6" max="6" width="46.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="84.81640625" customWidth="1"/>
+    <col min="5" max="5" width="61.90625" customWidth="1"/>
+    <col min="6" max="6" width="46.1796875" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
-    <col min="8" max="8" width="44.44140625" customWidth="1"/>
-    <col min="9" max="9" width="74.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" customWidth="1"/>
+    <col min="9" max="9" width="74.36328125" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,124 +581,124 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,7 +728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
